--- a/lookup table/20241210_bubbleData lookup table.xlsx
+++ b/lookup table/20241210_bubbleData lookup table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Athena/GaTech Dropbox/Athena Chien/Dropbox/Data/20241210_bubbleData/cleanedLookupSummaryForGithub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B60CD9-CC42-6E4D-8C67-D2B958233A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED562A60-7EAF-6243-B3AD-E06B50848D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32900" yWindow="6200" windowWidth="26420" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="25180" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>plateID</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>noSoln_modelCell_d1_chamber1_channel1_freq</t>
   </si>
   <si>
     <t>16HBEmedia_8TW_d1_chamber1_channel1_freq</t>
@@ -150,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,31 +176,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -504,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,7 +600,7 @@
         <v>31</v>
       </c>
       <c r="K2">
-        <v>1.1200000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -630,16 +615,15 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <v>1.1200000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
